--- a/biology/Zoologie/Diacrisia/Diacrisia.xlsx
+++ b/biology/Zoologie/Diacrisia/Diacrisia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diacrisia est un genre de lépidoptères (papillons) de la famille des Erebidae et de la sous-famille des Arctiinae.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Diacrisia a été décrit en 1819 par l'entomologiste allemand Jakob Hübner. Son espèce type est Phalaena russula Linnaeus, 1758, un synonyme de Diacrisia sannio (Linnaeus, 1758)[1].
-En 2016, les genres Rhyparia Hübner, 1820 et Rhyparioides Butler, 1877 ont été mis en synonymie avec Diacrisia[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Diacrisia a été décrit en 1819 par l'entomologiste allemand Jakob Hübner. Son espèce type est Phalaena russula Linnaeus, 1758, un synonyme de Diacrisia sannio (Linnaeus, 1758).
+En 2016, les genres Rhyparia Hübner, 1820 et Rhyparioides Butler, 1877 ont été mis en synonymie avec Diacrisia.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Diacrisia amurensis (Bremer, 1861)
 Diacrisia irene Butler, 1881
